--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UiPath_Projects\InvoiceScraping\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D37491-4E3D-46CE-920C-F58D71660D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958E1066-4A27-4FF0-A527-F74627681036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5175" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5175" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1644,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
